--- a/LinearRegression.xlsx
+++ b/LinearRegression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\Machine Learning\LinearRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F444E-DB13-403A-8565-5848BF11815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620490F5-815D-4367-BC8A-D85F5E195C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="554" activeTab="5" xr2:uid="{8A355237-44A4-4854-B980-8DCD4E5BA8EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="554" activeTab="8" xr2:uid="{8A355237-44A4-4854-B980-8DCD4E5BA8EC}"/>
   </bookViews>
   <sheets>
     <sheet name="F TEST" sheetId="15" r:id="rId1"/>
@@ -19,8 +19,11 @@
     <sheet name="LIN REG" sheetId="22" r:id="rId4"/>
     <sheet name="SLR" sheetId="35" r:id="rId5"/>
     <sheet name="MLR" sheetId="38" r:id="rId6"/>
-    <sheet name="Assumptions" sheetId="36" r:id="rId7"/>
-    <sheet name="Assump simplified" sheetId="37" r:id="rId8"/>
+    <sheet name="BGD" sheetId="39" r:id="rId7"/>
+    <sheet name="SGD" sheetId="40" r:id="rId8"/>
+    <sheet name="Logistic" sheetId="41" r:id="rId9"/>
+    <sheet name="Assumptions" sheetId="36" r:id="rId10"/>
+    <sheet name="Assump simplified" sheetId="37" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="231">
   <si>
     <t>MEDIAN</t>
   </si>
@@ -2389,6 +2392,45 @@
   </si>
   <si>
     <t>Loss Function</t>
+  </si>
+  <si>
+    <t>Batch Gradient Descent</t>
+  </si>
+  <si>
+    <t>mean squared error for BGD</t>
+  </si>
+  <si>
+    <t>Squared error for direct</t>
+  </si>
+  <si>
+    <t>Both work same</t>
+  </si>
+  <si>
+    <t>but mean used most</t>
+  </si>
+  <si>
+    <t>xi1--&gt; is first column</t>
+  </si>
+  <si>
+    <t>xi2--&gt; is second column</t>
+  </si>
+  <si>
+    <t>Stochastic Gradient Descent</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Log Loss Error/ Binary cross Entropy</t>
+  </si>
+  <si>
+    <t>Sigmoid Derivative</t>
+  </si>
+  <si>
+    <t>==&gt;</t>
+  </si>
+  <si>
+    <t>Weight Matrix</t>
   </si>
 </sst>
 </file>
@@ -3182,7 +3224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3439,6 +3481,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3487,11 +3534,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3772,6 +3816,256 @@
         <a:xfrm>
           <a:off x="2280139" y="10884877"/>
           <a:ext cx="9018556" cy="2880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>43158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388254</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B1BDC-DBFC-FA65-D6C1-AD498DE3C423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68580" y="43158"/>
+          <a:ext cx="6415674" cy="3142001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397089</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D86C72-3F1A-E528-AEDF-A0BB97545B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68580" y="3276599"/>
+          <a:ext cx="6424509" cy="3756661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7D792B-EBAD-5959-F60E-C5146F9E387E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6949440" y="53340"/>
+          <a:ext cx="6416040" cy="3608682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BE3CB0-8C93-5484-E057-52B2E769B1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6941820" y="3717032"/>
+          <a:ext cx="6423660" cy="3306371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17316</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>343410</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C727AC1E-89B4-7A28-3790-82D9F81B0280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7332516" y="358141"/>
+          <a:ext cx="4593294" cy="1737360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6818,23 +7112,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>43158</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>388254</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128569</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B1BDC-DBFC-FA65-D6C1-AD498DE3C423}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D955D2A4-B314-4889-99FA-DF688E36785C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6850,13 +7144,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68580" y="43158"/>
-          <a:ext cx="6415674" cy="3142001"/>
+          <a:off x="1828800" y="800100"/>
+          <a:ext cx="1347769" cy="708741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="C00000"/>
           </a:solidFill>
@@ -6867,23 +7161,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>397089</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84052</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D86C72-3F1A-E528-AEDF-A0BB97545B4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EADBA1E-57FE-4690-8110-2BC93D3B3DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6899,13 +7193,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68580" y="3276599"/>
-          <a:ext cx="6424509" cy="3756661"/>
+          <a:off x="8991600" y="464820"/>
+          <a:ext cx="2674852" cy="784928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="C00000"/>
           </a:solidFill>
@@ -6916,23 +7210,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4422</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117157</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7D792B-EBAD-5959-F60E-C5146F9E387E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB2AF1E-2782-4802-8AB5-2656F0166943}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6948,15 +7242,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6949440" y="53340"/>
-          <a:ext cx="6416040" cy="3608682"/>
+          <a:off x="4808220" y="647700"/>
+          <a:ext cx="3233737" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="C00000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -6965,23 +7259,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>59432</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>73963</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129710</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BE3CB0-8C93-5484-E057-52B2E769B1A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A66FE6-807B-1B06-91E6-E152E1A42C3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6997,13 +7291,643 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6941820" y="3717032"/>
-          <a:ext cx="6423660" cy="3306371"/>
+          <a:off x="1828800" y="1866900"/>
+          <a:ext cx="1958510" cy="1386960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>602129</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>221039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62FA4B8-857E-D411-88B8-527FBC2522EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2202180"/>
+          <a:ext cx="1714649" cy="685859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117157</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F5E072-49F7-B5E8-507A-2A47CB63A6A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8041957" y="1021080"/>
+          <a:ext cx="401003" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>602129</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AFB0EB-AC61-47F2-98DE-37EAA508AF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6698129" y="1760220"/>
+          <a:ext cx="1683871" cy="784890"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E21AFC-29D3-48F8-A802-0E4A77278680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8069580" y="857284"/>
+          <a:ext cx="922020" cy="41876"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBE1C44-AD91-499C-BC1B-3A836800E960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3276600" y="1021080"/>
+          <a:ext cx="1531620" cy="49496"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128569</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D061A8E5-0545-412E-BA78-2D51B7A57349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3176569" y="1154471"/>
+          <a:ext cx="1806911" cy="1390639"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>602129</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E3D5AF-0FFE-40AC-9D9F-6A192768F665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6698129" y="2545110"/>
+          <a:ext cx="1371451" cy="251430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533645</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>236271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD91F7D-9635-6FFC-12EE-20005CC69C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8069580" y="2583180"/>
+          <a:ext cx="2827265" cy="586791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53397</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948F8F62-6518-E490-3CA6-C93E1DE6BBAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7970520" y="3390900"/>
+          <a:ext cx="2430780" cy="662997"/>
+          <a:chOff x="7940040" y="3429000"/>
+          <a:chExt cx="1958473" cy="662997"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Picture 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD1085D-BAF2-20A4-F7C8-D7007284DD3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7940040" y="3436620"/>
+            <a:ext cx="342930" cy="647756"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8036F00F-EC43-63D7-A2D2-54AEBE723C96}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8359140" y="3429000"/>
+            <a:ext cx="1539373" cy="662997"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84033</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5337FE9F-39BF-BE71-9428-EF76A946BF73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993380" y="4206240"/>
+          <a:ext cx="2453853" cy="723963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3833F843-5D87-1E6C-4D4C-53C9659BC072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8008620" y="5059680"/>
+          <a:ext cx="2453640" cy="681567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="C00000"/>
           </a:solidFill>
@@ -7019,23 +7943,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17316</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91441</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>343410</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128569</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C727AC1E-89B4-7A28-3790-82D9F81B0280}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8359F540-95BD-4A32-A563-8DE5B9C4F227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7051,8 +7975,1371 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7332516" y="358141"/>
-          <a:ext cx="4593294" cy="1737360"/>
+          <a:off x="1828800" y="800100"/>
+          <a:ext cx="1347769" cy="708741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84052</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCEA356-027B-4390-B74B-D11666DFD13C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="464820"/>
+          <a:ext cx="2674852" cy="784928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117157</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E09792-833A-4DC5-8117-BCFBEAB46CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808220" y="647700"/>
+          <a:ext cx="3233737" cy="746760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129710</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF7320A-96AE-4E7A-A7E2-73E2DFC02509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1866900"/>
+          <a:ext cx="1958510" cy="1386960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>602129</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>221039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B44851-BC2E-426D-8445-11F05BF0C10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2202180"/>
+          <a:ext cx="1714649" cy="685859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117157</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A3C601-AC2C-4782-A703-B3984203FBE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8041957" y="1021080"/>
+          <a:ext cx="401003" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>602129</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653F5BAC-CB96-4BF9-89D7-0CC5CBADA061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6698129" y="1760220"/>
+          <a:ext cx="1683871" cy="784890"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122553E7-E23B-47CF-8555-EBAC988066D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8069580" y="857284"/>
+          <a:ext cx="922020" cy="41876"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9621227F-06F3-474B-8722-23BEE779560E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3276600" y="1021080"/>
+          <a:ext cx="1531620" cy="49496"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128569</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F1E90B-FBBB-4239-9E66-E1BDBF4F3A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3176569" y="1154471"/>
+          <a:ext cx="1806911" cy="1390639"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>602129</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF02E473-9141-4E10-AF38-7171882D8AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6698129" y="2545110"/>
+          <a:ext cx="1371451" cy="251430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533645</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>236271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AD03B5-C82B-4B75-9EBB-E7BCB6813C68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8069580" y="2583180"/>
+          <a:ext cx="2827265" cy="586791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53397</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFA452C-1DE5-445C-A0D8-CA1437C520CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7970520" y="3390900"/>
+          <a:ext cx="2430780" cy="662997"/>
+          <a:chOff x="7940040" y="3429000"/>
+          <a:chExt cx="1958473" cy="662997"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8826138F-80EA-EF7A-C8EC-6DD4583D53CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7940040" y="3436620"/>
+            <a:ext cx="342930" cy="647756"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Picture 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C1E4A4-6359-C40F-74DB-F395C0CF70A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8359140" y="3429000"/>
+            <a:ext cx="1539373" cy="662997"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84033</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB52F1A-63C6-4857-B7A4-73BDC3FD881C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993380" y="4206240"/>
+          <a:ext cx="2453853" cy="723963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB9347C-1B16-4BAD-AA40-485518CA2023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8008620" y="5059680"/>
+          <a:ext cx="2453640" cy="681567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176136</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEC75B5-2AAE-3292-AF6D-EA1A9848A0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5440680" y="3368040"/>
+          <a:ext cx="2050656" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381213</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190563</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="Group 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6237AB9E-0320-2548-E401-83F320C78F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5242560" y="4267200"/>
+          <a:ext cx="2453853" cy="723963"/>
+          <a:chOff x="5242560" y="4267200"/>
+          <a:chExt cx="2453853" cy="723963"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Picture 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BF2CF0-1C37-4CC0-A427-50D3175DA29E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5242560" y="4267200"/>
+            <a:ext cx="2453853" cy="723963"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE64076-8B0B-B1EA-D141-21B00712E7AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6088380" y="4297680"/>
+            <a:ext cx="251460" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF499B6D-E2B3-45A1-BEAD-93DC366E49E1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5836920" y="4663440"/>
+            <a:ext cx="259080" cy="213360"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145132</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A7FD06-4C39-2546-873F-694B06C85FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2179320" y="2171700"/>
+          <a:ext cx="4061812" cy="1044030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>365880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7C2E3A-096A-5822-CDC8-F46C02AF1C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7520940" y="876300"/>
+          <a:ext cx="1379340" cy="853514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>655449</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6910EF-DCE6-CA51-FA53-85D565E13EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="861060"/>
+          <a:ext cx="1493649" cy="815411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>137334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8877772-4145-2980-4AC0-87D3EE84F377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11681460" y="1066800"/>
+          <a:ext cx="2004234" cy="556308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503123</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCC9DAF-D792-C1AF-A6D8-8F41AE5B05BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7307580" y="2255520"/>
+          <a:ext cx="2339543" cy="815411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373444</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321FB81B-5015-2708-F3C6-A8B47E836157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2072640" y="3497580"/>
+          <a:ext cx="739204" cy="784928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442216</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941C086A-DCDB-2745-266F-846F5363C288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="3398520"/>
+          <a:ext cx="2956816" cy="990686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23158</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDA5082-ACCE-5760-AE9B-250C831B7767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2674620" y="4892040"/>
+          <a:ext cx="3444538" cy="937341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7392,13 +9679,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -7639,18 +9926,18 @@
       <c r="D24" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="139" t="s">
+      <c r="E24" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="139"/>
+      <c r="F24" s="144"/>
       <c r="K24" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="140" t="s">
+      <c r="L24" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="140"/>
-      <c r="N24" s="140"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
     </row>
     <row r="25" spans="2:73" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="19" t="s">
@@ -10192,30 +12479,30 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G66" s="141" t="s">
+      <c r="G66" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="142"/>
-      <c r="K66" s="149" t="s">
+      <c r="H66" s="147"/>
+      <c r="I66" s="147"/>
+      <c r="J66" s="147"/>
+      <c r="K66" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="L66" s="149"/>
-      <c r="M66" s="149"/>
-      <c r="N66" s="149"/>
-      <c r="O66" s="149" t="s">
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
+      <c r="N66" s="154"/>
+      <c r="O66" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="P66" s="149"/>
-      <c r="Q66" s="149"/>
-      <c r="R66" s="149"/>
-      <c r="S66" s="149" t="s">
+      <c r="P66" s="154"/>
+      <c r="Q66" s="154"/>
+      <c r="R66" s="154"/>
+      <c r="S66" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="T66" s="149"/>
-      <c r="U66" s="149"/>
-      <c r="V66" s="149"/>
+      <c r="T66" s="154"/>
+      <c r="U66" s="154"/>
+      <c r="V66" s="154"/>
     </row>
     <row r="67" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="2" t="s">
@@ -10305,30 +12592,30 @@
         <f>MEDIAN(F69:F73)</f>
         <v>30.29</v>
       </c>
-      <c r="G68" s="143" t="s">
+      <c r="G68" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="145"/>
-      <c r="K68" s="146" t="s">
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+      <c r="J68" s="150"/>
+      <c r="K68" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="L68" s="147"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="148"/>
-      <c r="O68" s="143" t="s">
+      <c r="L68" s="152"/>
+      <c r="M68" s="152"/>
+      <c r="N68" s="153"/>
+      <c r="O68" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="P68" s="144"/>
-      <c r="Q68" s="144"/>
-      <c r="R68" s="145"/>
-      <c r="S68" s="143" t="s">
+      <c r="P68" s="149"/>
+      <c r="Q68" s="149"/>
+      <c r="R68" s="150"/>
+      <c r="S68" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="T68" s="144"/>
-      <c r="U68" s="144"/>
-      <c r="V68" s="145"/>
+      <c r="T68" s="149"/>
+      <c r="U68" s="149"/>
+      <c r="V68" s="150"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C69" s="48">
@@ -10773,34 +13060,34 @@
       <c r="G78" s="52"/>
     </row>
     <row r="79" spans="1:22" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="137" t="s">
+      <c r="B79" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="137"/>
-      <c r="D79" s="137" t="s">
+      <c r="C79" s="142"/>
+      <c r="D79" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="137"/>
-      <c r="F79" s="137" t="s">
+      <c r="E79" s="142"/>
+      <c r="F79" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="G79" s="137"/>
-      <c r="H79" s="137" t="s">
+      <c r="G79" s="142"/>
+      <c r="H79" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="I79" s="137"/>
-      <c r="J79" s="137"/>
-      <c r="K79" s="137" t="s">
+      <c r="I79" s="142"/>
+      <c r="J79" s="142"/>
+      <c r="K79" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="L79" s="137"/>
-      <c r="M79" s="137"/>
+      <c r="L79" s="142"/>
+      <c r="M79" s="142"/>
     </row>
     <row r="80" spans="1:22" ht="27" x14ac:dyDescent="0.45">
-      <c r="B80" s="136" t="s">
+      <c r="B80" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="136"/>
+      <c r="C80" s="141"/>
       <c r="D80" s="68" t="s">
         <v>63</v>
       </c>
@@ -10837,10 +13124,10 @@
       </c>
     </row>
     <row r="81" spans="2:73" x14ac:dyDescent="0.45">
-      <c r="B81" s="136" t="s">
+      <c r="B81" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="136"/>
+      <c r="C81" s="141"/>
       <c r="D81" s="68" t="s">
         <v>64</v>
       </c>
@@ -10867,10 +13154,10 @@
       </c>
     </row>
     <row r="82" spans="2:73" x14ac:dyDescent="0.45">
-      <c r="B82" s="136" t="s">
+      <c r="B82" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="136"/>
+      <c r="C82" s="141"/>
       <c r="D82" s="68" t="s">
         <v>2</v>
       </c>
@@ -12253,34 +14540,34 @@
       <c r="G113" s="52"/>
     </row>
     <row r="114" spans="2:22" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="137" t="s">
+      <c r="B114" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C114" s="137"/>
-      <c r="D114" s="137" t="s">
+      <c r="C114" s="142"/>
+      <c r="D114" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="137"/>
-      <c r="F114" s="137" t="s">
+      <c r="E114" s="142"/>
+      <c r="F114" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="G114" s="137"/>
-      <c r="H114" s="137" t="s">
+      <c r="G114" s="142"/>
+      <c r="H114" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="I114" s="137"/>
-      <c r="J114" s="137"/>
-      <c r="K114" s="137" t="s">
+      <c r="I114" s="142"/>
+      <c r="J114" s="142"/>
+      <c r="K114" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="L114" s="137"/>
-      <c r="M114" s="137"/>
+      <c r="L114" s="142"/>
+      <c r="M114" s="142"/>
     </row>
     <row r="115" spans="2:22" ht="27" x14ac:dyDescent="0.45">
-      <c r="B115" s="136" t="s">
+      <c r="B115" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="136"/>
+      <c r="C115" s="141"/>
       <c r="D115" s="68" t="s">
         <v>63</v>
       </c>
@@ -12317,10 +14604,10 @@
       </c>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B116" s="136" t="s">
+      <c r="B116" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="C116" s="136"/>
+      <c r="C116" s="141"/>
       <c r="D116" s="68" t="s">
         <v>64</v>
       </c>
@@ -12347,10 +14634,10 @@
       </c>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B117" s="136" t="s">
+      <c r="B117" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C117" s="136"/>
+      <c r="C117" s="141"/>
       <c r="D117" s="68" t="s">
         <v>2</v>
       </c>
@@ -12677,6 +14964,109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3232AB0-292D-46B2-8B23-CF32CD6A2D08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB06309C-9AED-4237-88A0-C7B755253508}">
+  <dimension ref="C1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="139"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M1" s="140" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C2" s="139">
+        <v>1</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C3" s="139">
+        <v>2</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C4" s="139">
+        <v>3</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C5" s="139">
+        <v>4</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C6" s="139">
+        <v>5</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C7" s="139">
+        <v>6</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C8" s="139">
+        <v>7</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C9" s="139">
+        <v>8</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA239222-81A3-47F4-904E-B0EEEC3DBB64}">
   <dimension ref="A1:AF136"/>
@@ -13110,18 +15500,18 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="H28" s="151" t="s">
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="H28" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
     </row>
     <row r="29" spans="1:15" ht="46.8" x14ac:dyDescent="0.45">
       <c r="C29" s="115" t="s">
@@ -13693,18 +16083,18 @@
       </c>
     </row>
     <row r="58" spans="2:19" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="150" t="s">
+      <c r="C58" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="150"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="150"/>
-      <c r="H58" s="151" t="s">
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="H58" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="151"/>
-      <c r="J58" s="151"/>
-      <c r="K58" s="151"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C59" s="115" t="s">
@@ -14165,18 +16555,18 @@
       <c r="P79"/>
     </row>
     <row r="82" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C82" s="150" t="s">
+      <c r="C82" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="150"/>
-      <c r="E82" s="150"/>
-      <c r="F82" s="150"/>
-      <c r="H82" s="151" t="s">
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="H82" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="I82" s="151"/>
-      <c r="J82" s="151"/>
-      <c r="K82" s="151"/>
+      <c r="I82" s="156"/>
+      <c r="J82" s="156"/>
+      <c r="K82" s="156"/>
     </row>
     <row r="83" spans="2:11" ht="46.8" x14ac:dyDescent="0.45">
       <c r="C83" s="115" t="s">
@@ -14662,18 +17052,18 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C110" s="150" t="s">
+      <c r="C110" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="D110" s="150"/>
-      <c r="E110" s="150"/>
-      <c r="F110" s="150"/>
-      <c r="H110" s="151" t="s">
+      <c r="D110" s="155"/>
+      <c r="E110" s="155"/>
+      <c r="F110" s="155"/>
+      <c r="H110" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="I110" s="151"/>
-      <c r="J110" s="151"/>
-      <c r="K110" s="151"/>
+      <c r="I110" s="156"/>
+      <c r="J110" s="156"/>
+      <c r="K110" s="156"/>
     </row>
     <row r="111" spans="2:11" ht="46.8" x14ac:dyDescent="0.45">
       <c r="C111" s="115" t="s">
@@ -17171,22 +19561,22 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J2" s="152" t="s">
+      <c r="J2" s="136" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="4" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J4" s="152" t="s">
+      <c r="J4" s="136" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J6" s="152" t="s">
+      <c r="J6" s="136" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="153" t="s">
+      <c r="J9" s="137" t="s">
         <v>206</v>
       </c>
     </row>
@@ -17205,20 +19595,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA6C681-22D1-453C-B908-7CA9B85861A9}">
   <dimension ref="C2:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="154"/>
+    <col min="1" max="16384" width="8.88671875" style="138"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="154" t="s">
+      <c r="O2" s="138" t="s">
         <v>217</v>
       </c>
     </row>
@@ -17229,100 +19619,149 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3232AB0-292D-46B2-8B23-CF32CD6A2D08}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF7F572-4744-4A11-A095-0AF6266F9DEB}">
+  <dimension ref="C2:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="138"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C2" s="140" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="I8" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8" s="139" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N9" s="139" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.4">
+      <c r="S17" s="138" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="19:19" x14ac:dyDescent="0.4">
+      <c r="S21" s="138" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB06309C-9AED-4237-88A0-C7B755253508}">
-  <dimension ref="C1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C9C9C-789C-40F1-8D70-A39E17563371}">
+  <dimension ref="C2:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="155"/>
+    <col min="1" max="16384" width="8.88671875" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="M1" s="156" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C2" s="155">
-        <v>1</v>
-      </c>
-      <c r="D2" s="155" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C3" s="155">
-        <v>2</v>
-      </c>
-      <c r="D3" s="155" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C4" s="155">
-        <v>3</v>
-      </c>
-      <c r="D4" s="155" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C5" s="155">
-        <v>4</v>
-      </c>
-      <c r="D5" s="155" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C6" s="155">
-        <v>5</v>
-      </c>
-      <c r="D6" s="155" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C7" s="155">
-        <v>6</v>
-      </c>
-      <c r="D7" s="155" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C8" s="155">
-        <v>7</v>
-      </c>
-      <c r="D8" s="155" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C9" s="155">
-        <v>8</v>
-      </c>
-      <c r="D9" s="155" t="s">
-        <v>210</v>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C2" s="140" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="I8" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8" s="139" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N9" s="139" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.4">
+      <c r="S17" s="138" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="19:19" x14ac:dyDescent="0.4">
+      <c r="S21" s="138" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F0C8B5-BF58-45C1-807F-71725DD5D7D8}">
+  <dimension ref="C2:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="17" width="8.88671875" style="138"/>
+    <col min="18" max="18" width="10.88671875" style="138" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="138"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="N2" s="140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C3" s="139" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="D5" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="P5" s="158" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="158" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="E7" s="157" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="138" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
